--- a/results/mp/logistic/corona/confidence/168/topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,205 +40,229 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -596,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +628,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
         <v>40</v>
@@ -665,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7894736842105263</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9333333333333333</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -707,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7586206896551724</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7465753424657534</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C5">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +807,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6923076923076923</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -833,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -857,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5294117647058824</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.825065274151436</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>316</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>316</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -907,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.8207547169811321</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8048780487804879</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1007,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4594594594594595</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.796875</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.455026455026455</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C11">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.7758620689655172</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4166666666666667</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.7746478873239436</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L12">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="M12">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1157,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1165,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3725490196078431</v>
+        <v>0.375968992248062</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1207,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,13 +1239,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3391472868217054</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>341</v>
+        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>311</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>311</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,7 +1289,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2909090909090909</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -1283,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.7446808510638298</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1307,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1315,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.288135593220339</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1333,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.7375</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L16">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1357,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1365,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2416107382550336</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1383,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.7142857142857143</v>
+        <v>0.78125</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1407,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1415,13 +1439,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.24</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1433,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.7083333333333334</v>
+        <v>0.78125</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1457,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1465,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1444444444444444</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C19">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1483,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.6944444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1507,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,13 +1539,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.07142857142857142</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1533,19 +1557,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.6923076923076923</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1565,37 +1589,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006739679865206402</v>
+        <v>0.03485254691689008</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E21">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>2358</v>
+        <v>360</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.6744186046511628</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1607,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1615,37 +1639,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004511762810183693</v>
+        <v>0.008048937540244688</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E22">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="F22">
-        <v>0.78</v>
+        <v>0.96</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>3089</v>
+        <v>3081</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1657,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1665,37 +1689,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004071406201064829</v>
+        <v>0.006739679865206402</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
       <c r="F23">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3180</v>
+        <v>2358</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.6363636363636364</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1707,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1715,49 +1739,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.002814070351758794</v>
+        <v>0.003016241299303944</v>
       </c>
       <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>0.58</v>
+      </c>
+      <c r="F24">
+        <v>0.42</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>4297</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L24">
+        <v>34</v>
+      </c>
+      <c r="M24">
+        <v>34</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>14</v>
-      </c>
-      <c r="D24">
-        <v>35</v>
-      </c>
-      <c r="E24">
-        <v>0.6</v>
-      </c>
-      <c r="F24">
-        <v>0.4</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>4961</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24">
-        <v>0.6296296296296297</v>
-      </c>
-      <c r="L24">
-        <v>17</v>
-      </c>
-      <c r="M24">
-        <v>17</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1765,37 +1789,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.00252476208972616</v>
+        <v>0.002814636107760354</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E25">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="F25">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>5136</v>
+        <v>4960</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.6285714285714286</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1807,21 +1831,45 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.002725326065797158</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>42</v>
+      </c>
+      <c r="E26">
+        <v>0.67</v>
+      </c>
+      <c r="F26">
+        <v>0.33</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>5123</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>0.6264705882352941</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L26">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1833,21 +1881,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27">
-        <v>0.625</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1859,21 +1907,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1885,21 +1933,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.5899581589958159</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L29">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1911,21 +1959,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.574468085106383</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1937,21 +1985,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.5538461538461539</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1963,21 +2011,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.5457627118644067</v>
+        <v>0.6264705882352941</v>
       </c>
       <c r="L32">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="M32">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1989,21 +2037,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.5357142857142857</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2015,21 +2063,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.5168539325842697</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L34">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M34">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2041,21 +2089,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.4642857142857143</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2067,21 +2115,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.4571428571428571</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2093,21 +2141,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>38</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.3150684931506849</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2119,21 +2167,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K38">
-        <v>0.2692307692307692</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2145,21 +2193,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>57</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K39">
-        <v>0.2549019607843137</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2171,215 +2219,423 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K40">
-        <v>0.203125</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L40">
+        <v>14</v>
+      </c>
+      <c r="M40">
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>13</v>
-      </c>
-      <c r="M40">
-        <v>13</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>51</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K41">
-        <v>0.01417848206839033</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1182</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K42">
-        <v>0.008799497171590195</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N42">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1577</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K43">
-        <v>0.007510326699211416</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N43">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2643</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K44">
-        <v>0.006268282490597576</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2378</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="K45">
-        <v>0.004215174628663188</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N45">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>4961</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K46">
-        <v>0.003472222222222222</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N46">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>4305</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47">
+        <v>0.02559414990859232</v>
+      </c>
+      <c r="L47">
+        <v>14</v>
+      </c>
+      <c r="M47">
+        <v>14</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K48">
+        <v>0.01834862385321101</v>
+      </c>
+      <c r="L48">
+        <v>22</v>
+      </c>
+      <c r="M48">
+        <v>23</v>
+      </c>
+      <c r="N48">
+        <v>0.96</v>
+      </c>
+      <c r="O48">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K49">
+        <v>0.01006922592825677</v>
+      </c>
+      <c r="L49">
+        <v>16</v>
+      </c>
+      <c r="M49">
+        <v>21</v>
+      </c>
+      <c r="N49">
+        <v>0.76</v>
+      </c>
+      <c r="O49">
+        <v>0.24</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K50">
+        <v>0.007939824488090262</v>
+      </c>
+      <c r="L50">
+        <v>19</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>0.95</v>
+      </c>
+      <c r="O50">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K51">
+        <v>0.007499062617172854</v>
+      </c>
+      <c r="L51">
+        <v>20</v>
+      </c>
+      <c r="M51">
+        <v>26</v>
+      </c>
+      <c r="N51">
+        <v>0.77</v>
+      </c>
+      <c r="O51">
+        <v>0.23</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52">
+        <v>0.0054358377014172</v>
+      </c>
+      <c r="L52">
+        <v>28</v>
+      </c>
+      <c r="M52">
+        <v>42</v>
+      </c>
+      <c r="N52">
+        <v>0.67</v>
+      </c>
+      <c r="O52">
+        <v>0.33</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K53">
+        <v>0.004703668861712135</v>
+      </c>
+      <c r="L53">
+        <v>15</v>
+      </c>
+      <c r="M53">
+        <v>27</v>
+      </c>
+      <c r="N53">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O53">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K47">
-        <v>0.003105590062111801</v>
-      </c>
-      <c r="L47">
-        <v>16</v>
-      </c>
-      <c r="M47">
+      <c r="K54">
+        <v>0.004415897230028101</v>
+      </c>
+      <c r="L54">
+        <v>22</v>
+      </c>
+      <c r="M54">
+        <v>36</v>
+      </c>
+      <c r="N54">
+        <v>0.61</v>
+      </c>
+      <c r="O54">
+        <v>0.39</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N47">
-        <v>0.55</v>
-      </c>
-      <c r="O47">
-        <v>0.45</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>5136</v>
+      <c r="K55">
+        <v>0.004171494785631518</v>
+      </c>
+      <c r="L55">
+        <v>18</v>
+      </c>
+      <c r="M55">
+        <v>31</v>
+      </c>
+      <c r="N55">
+        <v>0.58</v>
+      </c>
+      <c r="O55">
+        <v>0.42</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>4297</v>
       </c>
     </row>
   </sheetData>
